--- a/comprovei_tracking.xlsx
+++ b/comprovei_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\tracking_site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D6D275-A012-4309-8B1D-645FAA2AAA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B7C37E-2771-4E9C-BD65-AD69E80BCED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="414">
   <si>
     <t>Parada</t>
   </si>
@@ -615,13 +615,673 @@
   </si>
   <si>
     <t>CTE</t>
+  </si>
+  <si>
+    <t>1398-1</t>
+  </si>
+  <si>
+    <t>1398-2</t>
+  </si>
+  <si>
+    <t>1399-1</t>
+  </si>
+  <si>
+    <t>1399-2</t>
+  </si>
+  <si>
+    <t>1400-1</t>
+  </si>
+  <si>
+    <t>1403-1</t>
+  </si>
+  <si>
+    <t>1403-2</t>
+  </si>
+  <si>
+    <t>1403-3</t>
+  </si>
+  <si>
+    <t>1403-4</t>
+  </si>
+  <si>
+    <t>1404-1</t>
+  </si>
+  <si>
+    <t>1405-1</t>
+  </si>
+  <si>
+    <t>1406-1</t>
+  </si>
+  <si>
+    <t>1406-2</t>
+  </si>
+  <si>
+    <t>1407-1</t>
+  </si>
+  <si>
+    <t>1408-1</t>
+  </si>
+  <si>
+    <t>1409-1</t>
+  </si>
+  <si>
+    <t>1410-1</t>
+  </si>
+  <si>
+    <t>1411-1</t>
+  </si>
+  <si>
+    <t>1411-2</t>
+  </si>
+  <si>
+    <t>1411-3</t>
+  </si>
+  <si>
+    <t>1412-1</t>
+  </si>
+  <si>
+    <t>1412-2</t>
+  </si>
+  <si>
+    <t>1413-1</t>
+  </si>
+  <si>
+    <t>1414-1</t>
+  </si>
+  <si>
+    <t>1415-1</t>
+  </si>
+  <si>
+    <t>1416-1</t>
+  </si>
+  <si>
+    <t>1416-2</t>
+  </si>
+  <si>
+    <t>1417-1</t>
+  </si>
+  <si>
+    <t>1417-2</t>
+  </si>
+  <si>
+    <t>1418-1</t>
+  </si>
+  <si>
+    <t>1418-2</t>
+  </si>
+  <si>
+    <t>1418-3</t>
+  </si>
+  <si>
+    <t>1419-1</t>
+  </si>
+  <si>
+    <t>1420-1</t>
+  </si>
+  <si>
+    <t>1421-1</t>
+  </si>
+  <si>
+    <t>1422-1</t>
+  </si>
+  <si>
+    <t>1424-1</t>
+  </si>
+  <si>
+    <t>1425-1</t>
+  </si>
+  <si>
+    <t>1425-2</t>
+  </si>
+  <si>
+    <t>1423-1</t>
+  </si>
+  <si>
+    <t>1423-2</t>
+  </si>
+  <si>
+    <t>1423-3</t>
+  </si>
+  <si>
+    <t>1426-1</t>
+  </si>
+  <si>
+    <t>1427-1</t>
+  </si>
+  <si>
+    <t>1428-1</t>
+  </si>
+  <si>
+    <t>1429-1</t>
+  </si>
+  <si>
+    <t>1429-2</t>
+  </si>
+  <si>
+    <t>1429-3</t>
+  </si>
+  <si>
+    <t>1430-1</t>
+  </si>
+  <si>
+    <t>1430-2</t>
+  </si>
+  <si>
+    <t>1430-3</t>
+  </si>
+  <si>
+    <t>1431-1</t>
+  </si>
+  <si>
+    <t>1433-1</t>
+  </si>
+  <si>
+    <t>1434-1</t>
+  </si>
+  <si>
+    <t>1432-1</t>
+  </si>
+  <si>
+    <t>1432-2</t>
+  </si>
+  <si>
+    <t>1435-1</t>
+  </si>
+  <si>
+    <t>1435-2</t>
+  </si>
+  <si>
+    <t>1435-3</t>
+  </si>
+  <si>
+    <t>1437-1</t>
+  </si>
+  <si>
+    <t>1437-2</t>
+  </si>
+  <si>
+    <t>1437-3</t>
+  </si>
+  <si>
+    <t>1438-1</t>
+  </si>
+  <si>
+    <t>1439-1</t>
+  </si>
+  <si>
+    <t>1441-1</t>
+  </si>
+  <si>
+    <t>1440-1</t>
+  </si>
+  <si>
+    <t>1442-1</t>
+  </si>
+  <si>
+    <t>1443-1</t>
+  </si>
+  <si>
+    <t>1443-2</t>
+  </si>
+  <si>
+    <t>1445-1</t>
+  </si>
+  <si>
+    <t>1445-2</t>
+  </si>
+  <si>
+    <t>1445-3</t>
+  </si>
+  <si>
+    <t>1445-4</t>
+  </si>
+  <si>
+    <t>1445-5</t>
+  </si>
+  <si>
+    <t>1445-6</t>
+  </si>
+  <si>
+    <t>1445-7</t>
+  </si>
+  <si>
+    <t>1445-8</t>
+  </si>
+  <si>
+    <t>1445-9</t>
+  </si>
+  <si>
+    <t>1445-10</t>
+  </si>
+  <si>
+    <t>1445-11</t>
+  </si>
+  <si>
+    <t>1445-12</t>
+  </si>
+  <si>
+    <t>1445-13</t>
+  </si>
+  <si>
+    <t>1445-14</t>
+  </si>
+  <si>
+    <t>1445-15</t>
+  </si>
+  <si>
+    <t>1445-16</t>
+  </si>
+  <si>
+    <t>1445-17</t>
+  </si>
+  <si>
+    <t>1445-18</t>
+  </si>
+  <si>
+    <t>1445-19</t>
+  </si>
+  <si>
+    <t>1445-20</t>
+  </si>
+  <si>
+    <t>1444-1</t>
+  </si>
+  <si>
+    <t>1447-1</t>
+  </si>
+  <si>
+    <t>1448-1</t>
+  </si>
+  <si>
+    <t>1446-1</t>
+  </si>
+  <si>
+    <t>1450-1</t>
+  </si>
+  <si>
+    <t>1450-2</t>
+  </si>
+  <si>
+    <t>1450-3</t>
+  </si>
+  <si>
+    <t>1449-1</t>
+  </si>
+  <si>
+    <t>1451-1</t>
+  </si>
+  <si>
+    <t>1451-2</t>
+  </si>
+  <si>
+    <t>1453-1</t>
+  </si>
+  <si>
+    <t>1455-1</t>
+  </si>
+  <si>
+    <t>1456-1</t>
+  </si>
+  <si>
+    <t>1456-2</t>
+  </si>
+  <si>
+    <t>1456-3</t>
+  </si>
+  <si>
+    <t>1457-1</t>
+  </si>
+  <si>
+    <t>1452-1</t>
+  </si>
+  <si>
+    <t>1459-1</t>
+  </si>
+  <si>
+    <t>1460-1</t>
+  </si>
+  <si>
+    <t>1461-1</t>
+  </si>
+  <si>
+    <t>1462-1</t>
+  </si>
+  <si>
+    <t>1462-2</t>
+  </si>
+  <si>
+    <t>1463-1</t>
+  </si>
+  <si>
+    <t>1463-2</t>
+  </si>
+  <si>
+    <t>1463-3</t>
+  </si>
+  <si>
+    <t>1465-1</t>
+  </si>
+  <si>
+    <t>1464-1</t>
+  </si>
+  <si>
+    <t>1467-1</t>
+  </si>
+  <si>
+    <t>1467-2</t>
+  </si>
+  <si>
+    <t>1467-3</t>
+  </si>
+  <si>
+    <t>1468-1</t>
+  </si>
+  <si>
+    <t>1468-2</t>
+  </si>
+  <si>
+    <t>1468-3</t>
+  </si>
+  <si>
+    <t>1468-4</t>
+  </si>
+  <si>
+    <t>1468-5</t>
+  </si>
+  <si>
+    <t>1470-1</t>
+  </si>
+  <si>
+    <t>1470-2</t>
+  </si>
+  <si>
+    <t>1470-3</t>
+  </si>
+  <si>
+    <t>1470-4</t>
+  </si>
+  <si>
+    <t>1470-5</t>
+  </si>
+  <si>
+    <t>1470-6</t>
+  </si>
+  <si>
+    <t>1473-1</t>
+  </si>
+  <si>
+    <t>1474-1</t>
+  </si>
+  <si>
+    <t>1475-1</t>
+  </si>
+  <si>
+    <t>1475-2</t>
+  </si>
+  <si>
+    <t>1475-3</t>
+  </si>
+  <si>
+    <t>1478-1</t>
+  </si>
+  <si>
+    <t>1478-2</t>
+  </si>
+  <si>
+    <t>1478-3</t>
+  </si>
+  <si>
+    <t>1479-1</t>
+  </si>
+  <si>
+    <t>1479-2</t>
+  </si>
+  <si>
+    <t>1479-3</t>
+  </si>
+  <si>
+    <t>1479-4</t>
+  </si>
+  <si>
+    <t>1480-1</t>
+  </si>
+  <si>
+    <t>1480-2</t>
+  </si>
+  <si>
+    <t>1482-1</t>
+  </si>
+  <si>
+    <t>1481-1</t>
+  </si>
+  <si>
+    <t>1483-1</t>
+  </si>
+  <si>
+    <t>1484-1</t>
+  </si>
+  <si>
+    <t>1484-2</t>
+  </si>
+  <si>
+    <t>1484-3</t>
+  </si>
+  <si>
+    <t>1484-4</t>
+  </si>
+  <si>
+    <t>1484-5</t>
+  </si>
+  <si>
+    <t>1486-1</t>
+  </si>
+  <si>
+    <t>1486-2</t>
+  </si>
+  <si>
+    <t>1485-1</t>
+  </si>
+  <si>
+    <t>1485-2</t>
+  </si>
+  <si>
+    <t>1485-3</t>
+  </si>
+  <si>
+    <t>1485-4</t>
+  </si>
+  <si>
+    <t>1485-5</t>
+  </si>
+  <si>
+    <t>1485-6</t>
+  </si>
+  <si>
+    <t>1485-7</t>
+  </si>
+  <si>
+    <t>1485-8</t>
+  </si>
+  <si>
+    <t>1485-9</t>
+  </si>
+  <si>
+    <t>1485-10</t>
+  </si>
+  <si>
+    <t>1485-11</t>
+  </si>
+  <si>
+    <t>1487-1</t>
+  </si>
+  <si>
+    <t>1487-2</t>
+  </si>
+  <si>
+    <t>1487-3</t>
+  </si>
+  <si>
+    <t>1488-1</t>
+  </si>
+  <si>
+    <t>1488-2</t>
+  </si>
+  <si>
+    <t>1488-3</t>
+  </si>
+  <si>
+    <t>1488-4</t>
+  </si>
+  <si>
+    <t>https://console-util.comprovei.com/getSignedUrl/90673/125/photo</t>
+  </si>
+  <si>
+    <t>https://console-util.comprovei.com/getSignedUrl/90673/126/photo</t>
+  </si>
+  <si>
+    <t>https://console-util.comprovei.com/getSignedUrl/90673/127/photo</t>
+  </si>
+  <si>
+    <t>https://console-util.comprovei.com/getSignedUrl/90673/128/photo</t>
+  </si>
+  <si>
+    <t>https://console-util.comprovei.com/getSignedUrl/90673/129/photo</t>
+  </si>
+  <si>
+    <t>https://console-util.comprovei.com/getSignedUrl/90673/130/photo</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVlAWMwWRP7oLY</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVUDwbEHlGi7Yx</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBV3NVC+4ziXpWP</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVWfdBYPsrmyhE</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVFNdTSHrGP691</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVVDNJez9rMts9</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVFFqOZEBdBhS3</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVRSKUyQjKWxEz</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVve6+iZykUeTi</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVWfRJwRkhFXRN</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVNFwfqbCo3YzL</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVn6avyL1Ka0Ag</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVWLVLOEnZWMYM</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVt2gThUUbatbD</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVlGlYG0aIvx60</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVAvjfI7078fCc</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVhnNl2X3x+g42</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVNJVJlP7WSzSG</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBV5I0z8S3fI4iD</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVZwrW3l9wDMTk</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVgRLWPnuwX4Mj</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVHzVjJoZU87DY</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVZT0OOhkgU7B7</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBV2satvMyqKO1t</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVjZ1OlX+2SFkm</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVkT0uCT2ZR7B6</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVe0ga2iTdpuCg</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVbkfvdMiGbqDy</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVtYoVFxyBa4R3</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBV2qudwR33h1OJ</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVr51BnpScGxlj</t>
+  </si>
+  <si>
+    <t>https://console-util.comprovei.com/getSignedUrl/90673/166/photo</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVEFOpYmzBKqB5</t>
+  </si>
+  <si>
+    <t>https://console-util.comprovei.com/getSignedUrl/90673/167/photo</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVEqGRTjxLUlvs</t>
+  </si>
+  <si>
+    <t>https://console-util.comprovei.com/getSignedUrl/90673/168/photo</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBV6j+BMgHfIdTm</t>
+  </si>
+  <si>
+    <t>https://console-util.comprovei.com/getSignedUrl/90673/169/photo</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVvr6P45Ls0izb</t>
+  </si>
+  <si>
+    <t>https://console-util.comprovei.com/getSignedUrl/90673/170/photo</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVR0tHSKG79SqO</t>
+  </si>
+  <si>
+    <t>https://tracking.comprovei.com/#/track/pMyTQDrCWcJiM4uEMqBVTN1dVSbUILPL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,13 +1310,34 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor rgb="FFFDE9D9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -681,55 +1362,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{4358EF37-3E7F-4E23-BBEB-717437EB8CED}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -789,18 +1459,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43BB7875-C5DC-4D70-A629-1B0D79699E20}" name="Tabela1" displayName="Tabela1" ref="A1:G136" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="A1:G136" xr:uid="{43BB7875-C5DC-4D70-A629-1B0D79699E20}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43BB7875-C5DC-4D70-A629-1B0D79699E20}" name="Tabela1" displayName="Tabela1" ref="A1:G173" totalsRowShown="0" headerRowDxfId="3" dataDxfId="1" headerRowBorderDxfId="2" tableBorderDxfId="0">
+  <autoFilter ref="A1:G173" xr:uid="{43BB7875-C5DC-4D70-A629-1B0D79699E20}"/>
   <tableColumns count="7">
-    <tableColumn id="4" xr3:uid="{9BF82CC8-5320-4932-8859-FCBA8BCD1D23}" name="Parada" dataDxfId="6"/>
-    <tableColumn id="72" xr3:uid="{47EA0306-6B3B-4B4A-96B7-C9376C839505}" name="CTE" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{D5561F0F-AB6E-47DE-8F54-FA680C00515F}" name="Número da nota" dataDxfId="4"/>
-    <tableColumn id="75" xr3:uid="{ED5D2B6B-6B45-46E1-A2FF-AD3E43FFB336}" name="Manifesto" dataDxfId="3"/>
-    <tableColumn id="78" xr3:uid="{705D5ABE-BA49-4552-B14E-6165CD78E522}" name="Manifesto + Parada" dataDxfId="2">
-      <calculatedColumnFormula>D2&amp;"-"&amp;A2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="59" xr3:uid="{EAAC0C7E-C1E5-4A59-9F28-AA88F2201C93}" name="Tracking" dataDxfId="1"/>
-    <tableColumn id="60" xr3:uid="{E23B87CB-053F-4DB9-AF5F-180E2DAFBEAC}" name="Foto" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{9BF82CC8-5320-4932-8859-FCBA8BCD1D23}" name="Parada"/>
+    <tableColumn id="72" xr3:uid="{47EA0306-6B3B-4B4A-96B7-C9376C839505}" name="CTE"/>
+    <tableColumn id="8" xr3:uid="{D5561F0F-AB6E-47DE-8F54-FA680C00515F}" name="Número da nota"/>
+    <tableColumn id="75" xr3:uid="{ED5D2B6B-6B45-46E1-A2FF-AD3E43FFB336}" name="Manifesto"/>
+    <tableColumn id="78" xr3:uid="{705D5ABE-BA49-4552-B14E-6165CD78E522}" name="Manifesto + Parada"/>
+    <tableColumn id="59" xr3:uid="{EAAC0C7E-C1E5-4A59-9F28-AA88F2201C93}" name="Tracking"/>
+    <tableColumn id="60" xr3:uid="{E23B87CB-053F-4DB9-AF5F-180E2DAFBEAC}" name="Foto"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1091,7 +1759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1110,7 +1778,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1130,3087 +1798,3754 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
         <v>3129</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>2017</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>1398</v>
       </c>
-      <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E33" si="0">D2&amp;"-"&amp;A2</f>
-        <v>1398-1</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>3129</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>2019</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>1398</v>
       </c>
-      <c r="E3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1398-2</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3131</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3130</v>
+      </c>
+      <c r="C4" s="3">
         <v>4474</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>1399</v>
       </c>
-      <c r="E4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1399-1</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
-        <v>3131</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="4">
+        <v>3130</v>
+      </c>
+      <c r="C5" s="4">
         <v>4475</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>1399</v>
       </c>
-      <c r="E5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1399-2</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
         <v>3135</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>9085</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>1400</v>
       </c>
-      <c r="E6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1400-1</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3150</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3149</v>
+      </c>
+      <c r="C7" s="4">
         <v>793</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>1403</v>
       </c>
-      <c r="E7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1403-1</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="2">
-        <v>3150</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="3">
+        <v>3149</v>
+      </c>
+      <c r="C8" s="3">
         <v>7444</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>1403</v>
       </c>
-      <c r="E8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1403-2</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="2">
-        <v>3150</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="4">
+        <v>3149</v>
+      </c>
+      <c r="C9" s="4">
         <v>7445</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>1403</v>
       </c>
-      <c r="E9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1403-3</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="2">
-        <v>3150</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="3">
+        <v>3149</v>
+      </c>
+      <c r="C10" s="3">
         <v>7446</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>1403</v>
       </c>
-      <c r="E10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1403-4</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4">
         <v>3153</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>4487</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>1404</v>
       </c>
-      <c r="E11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1404-1</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
         <v>3154</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>4486</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>1405</v>
       </c>
-      <c r="E12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1405-1</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3155</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3152</v>
+      </c>
+      <c r="C13" s="4">
         <v>4484</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>1406</v>
       </c>
-      <c r="E13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1406-1</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>2</v>
       </c>
-      <c r="B14" s="2">
-        <v>3155</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="3">
+        <v>3152</v>
+      </c>
+      <c r="C14" s="3">
         <v>4485</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>1406</v>
       </c>
-      <c r="E14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1406-2</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
         <v>3157</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>73824</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <v>1407</v>
       </c>
-      <c r="E15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1407-1</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
         <v>3159</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>9107</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>1408</v>
       </c>
-      <c r="E16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1408-1</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4">
         <v>3160</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>9108</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <v>1409</v>
       </c>
-      <c r="E17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1409-1</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
         <v>3161</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>73823</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>1410</v>
       </c>
-      <c r="E18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1410-1</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3164</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3162</v>
+      </c>
+      <c r="C19" s="4">
         <v>73852</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="4">
         <v>1411</v>
       </c>
-      <c r="E19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1411-1</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>2</v>
       </c>
-      <c r="B20" s="2">
-        <v>3164</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20" s="3">
+        <v>3162</v>
+      </c>
+      <c r="C20" s="3">
         <v>73883</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>1411</v>
       </c>
-      <c r="E20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1411-2</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>3</v>
       </c>
-      <c r="B21" s="2">
-        <v>3164</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21" s="4">
+        <v>3162</v>
+      </c>
+      <c r="C21" s="4">
         <v>73851</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="4">
         <v>1411</v>
       </c>
-      <c r="E21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1411-3</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3">
         <v>3165</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>31586</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>1412</v>
       </c>
-      <c r="E22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1412-1</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4">
         <v>3165</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>31588</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="4">
         <v>1412</v>
       </c>
-      <c r="E23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1412-2</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3">
         <v>3166</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>31587</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>1413</v>
       </c>
-      <c r="E24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1413-1</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2">
+      <c r="A25" s="4">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4">
         <v>3170</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>12272</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="4">
         <v>1414</v>
       </c>
-      <c r="E25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1414-1</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3">
         <v>3173</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <v>12273</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>1415</v>
       </c>
-      <c r="E26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1415-1</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="E26" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2">
+      <c r="A27" s="4">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4">
         <v>3174</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <v>576</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="4">
         <v>1416</v>
       </c>
-      <c r="E27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1416-1</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="E27" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>2</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>3174</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="3">
         <v>577</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <v>1416</v>
       </c>
-      <c r="E28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1416-2</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="E28" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2">
-        <v>3177</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="A29" s="4">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4">
+        <v>3176</v>
+      </c>
+      <c r="C29" s="4">
         <v>12265</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="4">
         <v>1417</v>
       </c>
-      <c r="E29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1417-1</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="3"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>2</v>
       </c>
-      <c r="B30" s="2">
-        <v>3177</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="B30" s="3">
+        <v>3176</v>
+      </c>
+      <c r="C30" s="3">
         <v>12262</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <v>1417</v>
       </c>
-      <c r="E30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1417-2</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="E30" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="3"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2">
-        <v>3179</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="A31" s="4">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4">
+        <v>3175</v>
+      </c>
+      <c r="C31" s="4">
         <v>73857</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="4">
         <v>1418</v>
       </c>
-      <c r="E31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1418-1</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="E31" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>2</v>
       </c>
-      <c r="B32" s="2">
-        <v>3179</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="B32" s="3">
+        <v>3175</v>
+      </c>
+      <c r="C32" s="3">
         <v>73858</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="3">
         <v>1418</v>
       </c>
-      <c r="E32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1418-2</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="E32" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="4">
         <v>3</v>
       </c>
-      <c r="B33" s="2">
-        <v>3179</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="B33" s="4">
+        <v>3175</v>
+      </c>
+      <c r="C33" s="4">
         <v>73859</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="4">
         <v>1418</v>
       </c>
-      <c r="E33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1418-3</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="E33" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3">
         <v>3180</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="3">
         <v>278</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="3">
         <v>1419</v>
       </c>
-      <c r="E34" s="2" t="str">
-        <f t="shared" ref="E34:E65" si="1">D34&amp;"-"&amp;A34</f>
-        <v>1419-1</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="E34" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2">
+      <c r="A35" s="4">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4">
         <v>3184</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="4">
         <v>73850</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="4">
         <v>1420</v>
       </c>
-      <c r="E35" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1420-1</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="E35" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="3"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>1</v>
-      </c>
-      <c r="B36" s="2">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3">
         <v>3185</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="3">
         <v>31608</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="3">
         <v>1421</v>
       </c>
-      <c r="E36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1421-1</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="E36" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>1</v>
-      </c>
-      <c r="B37" s="2">
+      <c r="A37" s="4">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4">
         <v>3186</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="4">
         <v>73860</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="4">
         <v>1422</v>
       </c>
-      <c r="E37" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1422-1</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="E37" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="3"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2">
+      <c r="A38" s="3">
+        <v>1</v>
+      </c>
+      <c r="B38" s="3">
         <v>3194</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="3">
         <v>9150</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="3">
         <v>1424</v>
       </c>
-      <c r="E38" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1424-1</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="E38" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2">
-        <v>3188</v>
-      </c>
-      <c r="C39" s="2">
+      <c r="A39" s="4">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4">
+        <v>3187</v>
+      </c>
+      <c r="C39" s="4">
         <v>881</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="4">
         <v>1425</v>
       </c>
-      <c r="E39" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1425-1</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="E39" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G39" s="3"/>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>2</v>
       </c>
-      <c r="B40" s="2">
-        <v>3188</v>
-      </c>
-      <c r="C40" s="2">
+      <c r="B40" s="3">
+        <v>3187</v>
+      </c>
+      <c r="C40" s="3">
         <v>895</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="3">
         <v>1425</v>
       </c>
-      <c r="E40" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1425-2</v>
-      </c>
-      <c r="F40" s="3" t="s">
+      <c r="E40" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G40" s="3"/>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>1</v>
-      </c>
-      <c r="B41" s="2">
-        <v>3191</v>
-      </c>
-      <c r="C41" s="2">
+      <c r="A41" s="4">
+        <v>1</v>
+      </c>
+      <c r="B41" s="4">
+        <v>3189</v>
+      </c>
+      <c r="C41" s="4">
         <v>73874</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="4">
         <v>1423</v>
       </c>
-      <c r="E41" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1423-1</v>
-      </c>
-      <c r="F41" s="3" t="s">
+      <c r="E41" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="3"/>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>2</v>
       </c>
-      <c r="B42" s="2">
-        <v>3191</v>
-      </c>
-      <c r="C42" s="2">
+      <c r="B42" s="3">
+        <v>3189</v>
+      </c>
+      <c r="C42" s="3">
         <v>73870</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="3">
         <v>1423</v>
       </c>
-      <c r="E42" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1423-2</v>
-      </c>
-      <c r="F42" s="3" t="s">
+      <c r="E42" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="3"/>
+      <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="4">
         <v>3</v>
       </c>
-      <c r="B43" s="2">
-        <v>3191</v>
-      </c>
-      <c r="C43" s="2">
+      <c r="B43" s="4">
+        <v>3189</v>
+      </c>
+      <c r="C43" s="4">
         <v>73871</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="4">
         <v>1423</v>
       </c>
-      <c r="E43" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1423-3</v>
-      </c>
-      <c r="F43" s="3" t="s">
+      <c r="E43" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G43" s="3"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>1</v>
-      </c>
-      <c r="B44" s="2">
+      <c r="A44" s="3">
+        <v>1</v>
+      </c>
+      <c r="B44" s="3">
         <v>3195</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="3">
         <v>9147</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="3">
         <v>1426</v>
       </c>
-      <c r="E44" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1426-1</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="E44" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>1</v>
-      </c>
-      <c r="B45" s="2">
+      <c r="A45" s="4">
+        <v>1</v>
+      </c>
+      <c r="B45" s="4">
         <v>3196</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="4">
         <v>9148</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="4">
         <v>1427</v>
       </c>
-      <c r="E45" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1427-1</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="E45" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>1</v>
-      </c>
-      <c r="B46" s="2">
+      <c r="A46" s="3">
+        <v>1</v>
+      </c>
+      <c r="B46" s="3">
         <v>3197</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="3">
         <v>13299</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="3">
         <v>1428</v>
       </c>
-      <c r="E46" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1428-1</v>
-      </c>
-      <c r="F46" s="3" t="s">
+      <c r="E46" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>1</v>
-      </c>
-      <c r="B47" s="2">
-        <v>3200</v>
-      </c>
-      <c r="C47" s="2">
+      <c r="A47" s="4">
+        <v>1</v>
+      </c>
+      <c r="B47" s="4">
+        <v>3198</v>
+      </c>
+      <c r="C47" s="4">
         <v>73872</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="4">
         <v>1429</v>
       </c>
-      <c r="E47" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1429-1</v>
-      </c>
-      <c r="F47" s="3" t="s">
+      <c r="E47" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>2</v>
       </c>
-      <c r="B48" s="2">
-        <v>3200</v>
-      </c>
-      <c r="C48" s="2">
+      <c r="B48" s="3">
+        <v>3198</v>
+      </c>
+      <c r="C48" s="3">
         <v>73876</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="3">
         <v>1429</v>
       </c>
-      <c r="E48" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1429-2</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="E48" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="4">
         <v>3</v>
       </c>
-      <c r="B49" s="2">
-        <v>3200</v>
-      </c>
-      <c r="C49" s="2">
+      <c r="B49" s="4">
+        <v>3198</v>
+      </c>
+      <c r="C49" s="4">
         <v>73875</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="4">
         <v>1429</v>
       </c>
-      <c r="E49" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1429-3</v>
-      </c>
-      <c r="F49" s="3" t="s">
+      <c r="E49" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>1</v>
-      </c>
-      <c r="B50" s="2">
+      <c r="A50" s="3">
+        <v>1</v>
+      </c>
+      <c r="B50" s="3">
         <v>3201</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="3">
         <v>12270</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="3">
         <v>1430</v>
       </c>
-      <c r="E50" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1430-1</v>
-      </c>
-      <c r="F50" s="3" t="s">
+      <c r="E50" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G50" s="3"/>
+      <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="4">
         <v>2</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="4">
         <v>3201</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="4">
         <v>12276</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="4">
         <v>1430</v>
       </c>
-      <c r="E51" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1430-2</v>
-      </c>
-      <c r="F51" s="3" t="s">
+      <c r="E51" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G51" s="3"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>3</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="3">
         <v>3201</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="3">
         <v>12269</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="3">
         <v>1430</v>
       </c>
-      <c r="E52" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1430-3</v>
-      </c>
-      <c r="F52" s="3" t="s">
+      <c r="E52" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G52" s="3"/>
+      <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>1</v>
-      </c>
-      <c r="B53" s="2">
+      <c r="A53" s="4">
+        <v>1</v>
+      </c>
+      <c r="B53" s="4">
         <v>3202</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="4">
         <v>6619</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="4">
         <v>1431</v>
       </c>
-      <c r="E53" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1431-1</v>
-      </c>
-      <c r="F53" s="3" t="s">
+      <c r="E53" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G53" s="3"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>1</v>
-      </c>
-      <c r="B54" s="2">
+      <c r="A54" s="3">
+        <v>1</v>
+      </c>
+      <c r="B54" s="3">
         <v>3205</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="3">
         <v>4496</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="3">
         <v>1433</v>
       </c>
-      <c r="E54" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1433-1</v>
-      </c>
-      <c r="F54" s="3" t="s">
+      <c r="E54" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>1</v>
-      </c>
-      <c r="B55" s="2">
+      <c r="A55" s="4">
+        <v>1</v>
+      </c>
+      <c r="B55" s="4">
         <v>3206</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="4">
         <v>4497</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="4">
         <v>1434</v>
       </c>
-      <c r="E55" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1434-1</v>
-      </c>
-      <c r="F55" s="3" t="s">
+      <c r="E55" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G55" s="3"/>
+      <c r="G55" s="7"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>1</v>
-      </c>
-      <c r="B56" s="2">
-        <v>3204</v>
-      </c>
-      <c r="C56" s="2">
+      <c r="A56" s="3">
+        <v>1</v>
+      </c>
+      <c r="B56" s="3">
+        <v>3203</v>
+      </c>
+      <c r="C56" s="3">
         <v>73865</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="3">
         <v>1432</v>
       </c>
-      <c r="E56" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1432-1</v>
-      </c>
-      <c r="F56" s="3" t="s">
+      <c r="E56" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G56" s="3"/>
+      <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="4">
         <v>2</v>
       </c>
-      <c r="B57" s="2">
-        <v>3204</v>
-      </c>
-      <c r="C57" s="2">
+      <c r="B57" s="4">
+        <v>3203</v>
+      </c>
+      <c r="C57" s="4">
         <v>73869</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="4">
         <v>1432</v>
       </c>
-      <c r="E57" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1432-2</v>
-      </c>
-      <c r="F57" s="3" t="s">
+      <c r="E57" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G57" s="3"/>
+      <c r="G57" s="7"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>1</v>
-      </c>
-      <c r="B58" s="2">
-        <v>3211</v>
-      </c>
-      <c r="C58" s="2">
+      <c r="A58" s="3">
+        <v>1</v>
+      </c>
+      <c r="B58" s="3">
+        <v>3208</v>
+      </c>
+      <c r="C58" s="3">
         <v>4498</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="3">
         <v>1435</v>
       </c>
-      <c r="E58" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1435-1</v>
-      </c>
-      <c r="F58" s="3" t="s">
+      <c r="E58" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G58" s="3"/>
+      <c r="G58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="4">
         <v>2</v>
       </c>
-      <c r="B59" s="2">
-        <v>3211</v>
-      </c>
-      <c r="C59" s="2">
+      <c r="B59" s="4">
+        <v>3208</v>
+      </c>
+      <c r="C59" s="4">
         <v>4499</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="4">
         <v>1435</v>
       </c>
-      <c r="E59" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1435-2</v>
-      </c>
-      <c r="F59" s="3" t="s">
+      <c r="E59" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G59" s="3"/>
+      <c r="G59" s="7"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>3</v>
       </c>
-      <c r="B60" s="2">
-        <v>3211</v>
-      </c>
-      <c r="C60" s="2">
+      <c r="B60" s="3">
+        <v>3208</v>
+      </c>
+      <c r="C60" s="3">
         <v>4500</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="3">
         <v>1435</v>
       </c>
-      <c r="E60" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1435-3</v>
-      </c>
-      <c r="F60" s="3" t="s">
+      <c r="E60" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G60" s="3"/>
+      <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>1</v>
-      </c>
-      <c r="B61" s="2">
-        <v>3214</v>
-      </c>
-      <c r="C61" s="2">
+      <c r="A61" s="4">
+        <v>1</v>
+      </c>
+      <c r="B61" s="4">
+        <v>3212</v>
+      </c>
+      <c r="C61" s="4">
         <v>882</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="4">
         <v>1437</v>
       </c>
-      <c r="E61" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1437-1</v>
-      </c>
-      <c r="F61" s="3" t="s">
+      <c r="E61" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G61" s="3"/>
+      <c r="G61" s="7"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>2</v>
       </c>
-      <c r="B62" s="2">
-        <v>3214</v>
-      </c>
-      <c r="C62" s="2">
+      <c r="B62" s="3">
+        <v>3212</v>
+      </c>
+      <c r="C62" s="3">
         <v>893</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="3">
         <v>1437</v>
       </c>
-      <c r="E62" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1437-2</v>
-      </c>
-      <c r="F62" s="3" t="s">
+      <c r="E62" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G62" s="3"/>
+      <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="4">
         <v>3</v>
       </c>
-      <c r="B63" s="2">
-        <v>3214</v>
-      </c>
-      <c r="C63" s="2">
+      <c r="B63" s="4">
+        <v>3212</v>
+      </c>
+      <c r="C63" s="4">
         <v>879</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="4">
         <v>1437</v>
       </c>
-      <c r="E63" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1437-3</v>
-      </c>
-      <c r="F63" s="3" t="s">
+      <c r="E63" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G63" s="3"/>
+      <c r="G63" s="7"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>1</v>
-      </c>
-      <c r="B64" s="2">
+      <c r="A64" s="3">
+        <v>1</v>
+      </c>
+      <c r="B64" s="3">
         <v>3215</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="3">
         <v>892</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="3">
         <v>1438</v>
       </c>
-      <c r="E64" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1438-1</v>
-      </c>
-      <c r="F64" s="3" t="s">
+      <c r="E64" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G64" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>1</v>
-      </c>
-      <c r="B65" s="2">
+      <c r="A65" s="4">
+        <v>1</v>
+      </c>
+      <c r="B65" s="4">
         <v>3219</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="4">
         <v>4507</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="4">
         <v>1439</v>
       </c>
-      <c r="E65" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1439-1</v>
-      </c>
-      <c r="F65" s="3" t="s">
+      <c r="E65" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>1</v>
-      </c>
-      <c r="B66" s="2">
+      <c r="A66" s="3">
+        <v>1</v>
+      </c>
+      <c r="B66" s="3">
         <v>3224</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="3">
         <v>4508</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="3">
         <v>1441</v>
       </c>
-      <c r="E66" s="2" t="str">
-        <f t="shared" ref="E66:E97" si="2">D66&amp;"-"&amp;A66</f>
-        <v>1441-1</v>
-      </c>
-      <c r="F66" s="3" t="s">
+      <c r="E66" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G66" s="3"/>
+      <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>1</v>
-      </c>
-      <c r="B67" s="2">
+      <c r="A67" s="4">
+        <v>1</v>
+      </c>
+      <c r="B67" s="4">
         <v>3223</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="4">
         <v>78849</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="4">
         <v>1440</v>
       </c>
-      <c r="E67" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1440-1</v>
-      </c>
-      <c r="F67" s="3" t="s">
+      <c r="E67" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G67" s="3"/>
+      <c r="G67" s="7"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>1</v>
-      </c>
-      <c r="B68" s="2">
+      <c r="A68" s="3">
+        <v>1</v>
+      </c>
+      <c r="B68" s="3">
         <v>3226</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="3">
         <v>12280</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="3">
         <v>1442</v>
       </c>
-      <c r="E68" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1442-1</v>
-      </c>
-      <c r="F68" s="3" t="s">
+      <c r="E68" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G68" s="3"/>
+      <c r="G68" s="5"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>1</v>
-      </c>
-      <c r="B69" s="2" t="e">
+      <c r="A69" s="4">
+        <v>1</v>
+      </c>
+      <c r="B69" s="4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="4">
         <v>73878</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="4">
         <v>1443</v>
       </c>
-      <c r="E69" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1443-1</v>
-      </c>
-      <c r="F69" s="3" t="s">
+      <c r="E69" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F69" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G69" s="3"/>
+      <c r="G69" s="7"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>2</v>
       </c>
-      <c r="B70" s="2" t="e">
+      <c r="B70" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="3">
         <v>73879</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="3">
         <v>1443</v>
       </c>
-      <c r="E70" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1443-2</v>
-      </c>
-      <c r="F70" s="3" t="s">
+      <c r="E70" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G70" s="3"/>
+      <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>1</v>
-      </c>
-      <c r="B71" s="2">
-        <v>3231</v>
-      </c>
-      <c r="C71" s="2">
+      <c r="A71" s="4">
+        <v>1</v>
+      </c>
+      <c r="B71" s="4">
+        <v>3230</v>
+      </c>
+      <c r="C71" s="4">
         <v>31710</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="4">
         <v>1445</v>
       </c>
-      <c r="E71" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1445-1</v>
-      </c>
-      <c r="F71" s="3" t="s">
+      <c r="E71" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G71" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72" s="3">
         <v>2</v>
       </c>
-      <c r="B72" s="2">
-        <v>3231</v>
-      </c>
-      <c r="C72" s="2">
+      <c r="B72" s="3">
+        <v>3230</v>
+      </c>
+      <c r="C72" s="3">
         <v>31711</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="3">
         <v>1445</v>
       </c>
-      <c r="E72" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1445-2</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="E72" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G72" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73" s="4">
         <v>3</v>
       </c>
-      <c r="B73" s="2">
-        <v>3231</v>
-      </c>
-      <c r="C73" s="2">
+      <c r="B73" s="4">
+        <v>3230</v>
+      </c>
+      <c r="C73" s="4">
         <v>31712</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="4">
         <v>1445</v>
       </c>
-      <c r="E73" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1445-3</v>
-      </c>
-      <c r="F73" s="3" t="s">
+      <c r="E73" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F73" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G73" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>4</v>
       </c>
-      <c r="B74" s="2">
-        <v>3231</v>
-      </c>
-      <c r="C74" s="2">
+      <c r="B74" s="3">
+        <v>3230</v>
+      </c>
+      <c r="C74" s="3">
         <v>31713</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="3">
         <v>1445</v>
       </c>
-      <c r="E74" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1445-4</v>
-      </c>
-      <c r="F74" s="3" t="s">
+      <c r="E74" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G74" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75" s="4">
         <v>5</v>
       </c>
-      <c r="B75" s="2">
-        <v>3231</v>
-      </c>
-      <c r="C75" s="2">
+      <c r="B75" s="4">
+        <v>3230</v>
+      </c>
+      <c r="C75" s="4">
         <v>31714</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="4">
         <v>1445</v>
       </c>
-      <c r="E75" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1445-5</v>
-      </c>
-      <c r="F75" s="3" t="s">
+      <c r="E75" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F75" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <v>6</v>
       </c>
-      <c r="B76" s="2">
-        <v>3231</v>
-      </c>
-      <c r="C76" s="2">
+      <c r="B76" s="3">
+        <v>3230</v>
+      </c>
+      <c r="C76" s="3">
         <v>31706</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="3">
         <v>1445</v>
       </c>
-      <c r="E76" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1445-6</v>
-      </c>
-      <c r="F76" s="3" t="s">
+      <c r="E76" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G76" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="A77" s="4">
         <v>7</v>
       </c>
-      <c r="B77" s="2">
-        <v>3231</v>
-      </c>
-      <c r="C77" s="2">
+      <c r="B77" s="4">
+        <v>3230</v>
+      </c>
+      <c r="C77" s="4">
         <v>31707</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="4">
         <v>1445</v>
       </c>
-      <c r="E77" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1445-7</v>
-      </c>
-      <c r="F77" s="3" t="s">
+      <c r="E77" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F77" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G77" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="3">
         <v>8</v>
       </c>
-      <c r="B78" s="2">
-        <v>3231</v>
-      </c>
-      <c r="C78" s="2">
+      <c r="B78" s="3">
+        <v>3230</v>
+      </c>
+      <c r="C78" s="3">
         <v>31708</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="3">
         <v>1445</v>
       </c>
-      <c r="E78" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1445-8</v>
-      </c>
-      <c r="F78" s="3" t="s">
+      <c r="E78" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G78" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="4">
         <v>9</v>
       </c>
-      <c r="B79" s="2">
-        <v>3231</v>
-      </c>
-      <c r="C79" s="2">
+      <c r="B79" s="4">
+        <v>3230</v>
+      </c>
+      <c r="C79" s="4">
         <v>31709</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="4">
         <v>1445</v>
       </c>
-      <c r="E79" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1445-9</v>
-      </c>
-      <c r="F79" s="3" t="s">
+      <c r="E79" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F79" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G79" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="3">
         <v>10</v>
       </c>
-      <c r="B80" s="2">
-        <v>3231</v>
-      </c>
-      <c r="C80" s="2">
+      <c r="B80" s="3">
+        <v>3230</v>
+      </c>
+      <c r="C80" s="3">
         <v>31700</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="3">
         <v>1445</v>
       </c>
-      <c r="E80" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1445-10</v>
-      </c>
-      <c r="F80" s="3" t="s">
+      <c r="E80" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G80" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="A81" s="4">
         <v>11</v>
       </c>
-      <c r="B81" s="2">
-        <v>3231</v>
-      </c>
-      <c r="C81" s="2">
+      <c r="B81" s="4">
+        <v>3230</v>
+      </c>
+      <c r="C81" s="4">
         <v>31701</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="4">
         <v>1445</v>
       </c>
-      <c r="E81" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1445-11</v>
-      </c>
-      <c r="F81" s="3" t="s">
+      <c r="E81" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F81" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G81" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="A82" s="3">
         <v>12</v>
       </c>
-      <c r="B82" s="2">
-        <v>3231</v>
-      </c>
-      <c r="C82" s="2">
+      <c r="B82" s="3">
+        <v>3230</v>
+      </c>
+      <c r="C82" s="3">
         <v>31702</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="3">
         <v>1445</v>
       </c>
-      <c r="E82" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1445-12</v>
-      </c>
-      <c r="F82" s="3" t="s">
+      <c r="E82" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F82" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G82" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="A83" s="4">
         <v>13</v>
       </c>
-      <c r="B83" s="2">
-        <v>3231</v>
-      </c>
-      <c r="C83" s="2">
+      <c r="B83" s="4">
+        <v>3230</v>
+      </c>
+      <c r="C83" s="4">
         <v>31703</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="4">
         <v>1445</v>
       </c>
-      <c r="E83" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1445-13</v>
-      </c>
-      <c r="F83" s="3" t="s">
+      <c r="E83" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F83" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G83" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+      <c r="A84" s="3">
         <v>14</v>
       </c>
-      <c r="B84" s="2">
-        <v>3231</v>
-      </c>
-      <c r="C84" s="2">
+      <c r="B84" s="3">
+        <v>3230</v>
+      </c>
+      <c r="C84" s="3">
         <v>31704</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="3">
         <v>1445</v>
       </c>
-      <c r="E84" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1445-14</v>
-      </c>
-      <c r="F84" s="3" t="s">
+      <c r="E84" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F84" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G84" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+      <c r="A85" s="4">
         <v>15</v>
       </c>
-      <c r="B85" s="2">
-        <v>3231</v>
-      </c>
-      <c r="C85" s="2">
+      <c r="B85" s="4">
+        <v>3230</v>
+      </c>
+      <c r="C85" s="4">
         <v>31705</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="4">
         <v>1445</v>
       </c>
-      <c r="E85" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1445-15</v>
-      </c>
-      <c r="F85" s="3" t="s">
+      <c r="E85" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G85" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="A86" s="3">
         <v>16</v>
       </c>
-      <c r="B86" s="2">
-        <v>3231</v>
-      </c>
-      <c r="C86" s="2">
+      <c r="B86" s="3">
+        <v>3230</v>
+      </c>
+      <c r="C86" s="3">
         <v>31695</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="3">
         <v>1445</v>
       </c>
-      <c r="E86" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1445-16</v>
-      </c>
-      <c r="F86" s="3" t="s">
+      <c r="E86" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G86" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="A87" s="4">
         <v>17</v>
       </c>
-      <c r="B87" s="2">
-        <v>3231</v>
-      </c>
-      <c r="C87" s="2">
+      <c r="B87" s="4">
+        <v>3230</v>
+      </c>
+      <c r="C87" s="4">
         <v>31696</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="4">
         <v>1445</v>
       </c>
-      <c r="E87" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1445-17</v>
-      </c>
-      <c r="F87" s="3" t="s">
+      <c r="E87" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F87" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G87" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="A88" s="3">
         <v>18</v>
       </c>
-      <c r="B88" s="2">
-        <v>3231</v>
-      </c>
-      <c r="C88" s="2">
+      <c r="B88" s="3">
+        <v>3230</v>
+      </c>
+      <c r="C88" s="3">
         <v>31697</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="3">
         <v>1445</v>
       </c>
-      <c r="E88" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1445-18</v>
-      </c>
-      <c r="F88" s="3" t="s">
+      <c r="E88" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F88" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G88" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="A89" s="4">
         <v>19</v>
       </c>
-      <c r="B89" s="2">
-        <v>3231</v>
-      </c>
-      <c r="C89" s="2">
+      <c r="B89" s="4">
+        <v>3230</v>
+      </c>
+      <c r="C89" s="4">
         <v>31698</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="4">
         <v>1445</v>
       </c>
-      <c r="E89" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1445-19</v>
-      </c>
-      <c r="F89" s="3" t="s">
+      <c r="E89" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F89" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="G89" s="7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+      <c r="A90" s="3">
         <v>20</v>
       </c>
-      <c r="B90" s="2">
-        <v>3231</v>
-      </c>
-      <c r="C90" s="2">
+      <c r="B90" s="3">
+        <v>3230</v>
+      </c>
+      <c r="C90" s="3">
         <v>31699</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="3">
         <v>1445</v>
       </c>
-      <c r="E90" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1445-20</v>
-      </c>
-      <c r="F90" s="3" t="s">
+      <c r="E90" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F90" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="G90" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
-        <v>1</v>
-      </c>
-      <c r="B91" s="2">
+      <c r="A91" s="4">
+        <v>1</v>
+      </c>
+      <c r="B91" s="4">
         <v>3229</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="4">
         <v>73856</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="4">
         <v>1444</v>
       </c>
-      <c r="E91" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1444-1</v>
-      </c>
-      <c r="F91" s="3" t="s">
+      <c r="E91" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F91" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="G91" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
-        <v>1</v>
-      </c>
-      <c r="B92" s="2">
+      <c r="A92" s="3">
+        <v>1</v>
+      </c>
+      <c r="B92" s="3">
         <v>3233</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="3">
         <v>4506</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="3">
         <v>1447</v>
       </c>
-      <c r="E92" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1447-1</v>
-      </c>
-      <c r="F92" s="3" t="s">
+      <c r="E92" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F92" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G92" s="3"/>
+      <c r="G92" s="5"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>1</v>
-      </c>
-      <c r="B93" s="2">
+      <c r="A93" s="4">
+        <v>1</v>
+      </c>
+      <c r="B93" s="4">
         <v>3234</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="4">
         <v>9173</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="4">
         <v>1448</v>
       </c>
-      <c r="E93" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1448-1</v>
-      </c>
-      <c r="F93" s="3" t="s">
+      <c r="E93" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F93" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G93" s="3"/>
+      <c r="G93" s="7"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
-        <v>1</v>
-      </c>
-      <c r="B94" s="2">
+      <c r="A94" s="3">
+        <v>1</v>
+      </c>
+      <c r="B94" s="3">
         <v>3232</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="3">
         <v>34052</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="3">
         <v>1446</v>
       </c>
-      <c r="E94" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1446-1</v>
-      </c>
-      <c r="F94" s="3" t="s">
+      <c r="E94" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G94" s="3"/>
+      <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
-        <v>1</v>
-      </c>
-      <c r="B95" s="2">
-        <v>3241</v>
-      </c>
-      <c r="C95" s="2">
+      <c r="A95" s="4">
+        <v>1</v>
+      </c>
+      <c r="B95" s="4">
+        <v>3239</v>
+      </c>
+      <c r="C95" s="4">
         <v>4513</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="4">
         <v>1450</v>
       </c>
-      <c r="E95" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1450-1</v>
-      </c>
-      <c r="F95" s="3" t="s">
+      <c r="E95" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F95" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G95" s="3"/>
+      <c r="G95" s="7"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+      <c r="A96" s="3">
         <v>2</v>
       </c>
-      <c r="B96" s="2">
-        <v>3241</v>
-      </c>
-      <c r="C96" s="2">
+      <c r="B96" s="3">
+        <v>3239</v>
+      </c>
+      <c r="C96" s="3">
         <v>4512</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="3">
         <v>1450</v>
       </c>
-      <c r="E96" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1450-2</v>
-      </c>
-      <c r="F96" s="3" t="s">
+      <c r="E96" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F96" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G96" s="3"/>
+      <c r="G96" s="5"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+      <c r="A97" s="4">
         <v>3</v>
       </c>
-      <c r="B97" s="2">
-        <v>3241</v>
-      </c>
-      <c r="C97" s="2">
+      <c r="B97" s="4">
+        <v>3239</v>
+      </c>
+      <c r="C97" s="4">
         <v>4514</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="4">
         <v>1450</v>
       </c>
-      <c r="E97" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1450-3</v>
-      </c>
-      <c r="F97" s="3" t="s">
+      <c r="E97" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F97" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G97" s="3"/>
+      <c r="G97" s="7"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
-        <v>1</v>
-      </c>
-      <c r="B98" s="2">
+      <c r="A98" s="3">
+        <v>1</v>
+      </c>
+      <c r="B98" s="3">
         <v>3235</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="3">
         <v>73882</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="3">
         <v>1449</v>
       </c>
-      <c r="E98" s="2" t="str">
-        <f t="shared" ref="E98:E129" si="3">D98&amp;"-"&amp;A98</f>
-        <v>1449-1</v>
-      </c>
-      <c r="F98" s="3" t="s">
+      <c r="E98" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F98" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G98" s="3"/>
+      <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
-        <v>1</v>
-      </c>
-      <c r="B99" s="2">
+      <c r="A99" s="4">
+        <v>1</v>
+      </c>
+      <c r="B99" s="4">
         <v>3244</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="4">
         <v>21894</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="4">
         <v>1451</v>
       </c>
-      <c r="E99" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1451-1</v>
-      </c>
-      <c r="F99" s="3" t="s">
+      <c r="E99" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G99" s="3"/>
+      <c r="G99" s="7"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
+      <c r="A100" s="3">
         <v>2</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="3">
         <v>3244</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="3">
         <v>21895</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="3">
         <v>1451</v>
       </c>
-      <c r="E100" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1451-2</v>
-      </c>
-      <c r="F100" s="3" t="s">
+      <c r="E100" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F100" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="G100" s="3"/>
+      <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
-        <v>1</v>
-      </c>
-      <c r="B101" s="2">
+      <c r="A101" s="4">
+        <v>1</v>
+      </c>
+      <c r="B101" s="4">
         <v>3246</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="4">
         <v>12290</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="4">
         <v>1453</v>
       </c>
-      <c r="E101" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1453-1</v>
-      </c>
-      <c r="F101" s="3" t="s">
+      <c r="E101" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F101" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G101" s="3"/>
+      <c r="G101" s="7"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
-        <v>1</v>
-      </c>
-      <c r="B102" s="2">
+      <c r="A102" s="3">
+        <v>1</v>
+      </c>
+      <c r="B102" s="3">
         <v>3256</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="3">
         <v>9208</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="3">
         <v>1455</v>
       </c>
-      <c r="E102" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1455-1</v>
-      </c>
-      <c r="F102" s="3" t="s">
+      <c r="E102" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F102" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G102" s="3"/>
+      <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
-        <v>1</v>
-      </c>
-      <c r="B103" s="2">
-        <v>3258</v>
-      </c>
-      <c r="C103" s="2">
+      <c r="A103" s="4">
+        <v>1</v>
+      </c>
+      <c r="B103" s="4">
+        <v>3255</v>
+      </c>
+      <c r="C103" s="4">
         <v>4531</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="4">
         <v>1456</v>
       </c>
-      <c r="E103" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1456-1</v>
-      </c>
-      <c r="F103" s="3" t="s">
+      <c r="E103" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F103" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G103" s="3"/>
+      <c r="G103" s="7"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
+      <c r="A104" s="3">
         <v>2</v>
       </c>
-      <c r="B104" s="2">
-        <v>3258</v>
-      </c>
-      <c r="C104" s="2">
+      <c r="B104" s="3">
+        <v>3255</v>
+      </c>
+      <c r="C104" s="3">
         <v>4530</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="3">
         <v>1456</v>
       </c>
-      <c r="E104" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1456-2</v>
-      </c>
-      <c r="F104" s="3" t="s">
+      <c r="E104" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F104" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G104" s="3"/>
+      <c r="G104" s="5"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
+      <c r="A105" s="4">
         <v>3</v>
       </c>
-      <c r="B105" s="2">
-        <v>3258</v>
-      </c>
-      <c r="C105" s="2">
+      <c r="B105" s="4">
+        <v>3255</v>
+      </c>
+      <c r="C105" s="4">
         <v>4532</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="4">
         <v>1456</v>
       </c>
-      <c r="E105" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1456-3</v>
-      </c>
-      <c r="F105" s="3" t="s">
+      <c r="E105" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F105" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G105" s="3"/>
+      <c r="G105" s="7"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
-        <v>1</v>
-      </c>
-      <c r="B106" s="2">
+      <c r="A106" s="3">
+        <v>1</v>
+      </c>
+      <c r="B106" s="3">
         <v>3260</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="3">
         <v>6555</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="3">
         <v>1457</v>
       </c>
-      <c r="E106" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1457-1</v>
-      </c>
-      <c r="F106" s="3" t="s">
+      <c r="E106" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F106" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G106" s="3"/>
+      <c r="G106" s="5"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
-        <v>1</v>
-      </c>
-      <c r="B107" s="2">
+      <c r="A107" s="4">
+        <v>1</v>
+      </c>
+      <c r="B107" s="4">
         <v>3247</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="4">
         <v>12289</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="4">
         <v>1452</v>
       </c>
-      <c r="E107" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1452-1</v>
-      </c>
-      <c r="F107" s="3" t="s">
+      <c r="E107" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F107" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G107" s="3"/>
+      <c r="G107" s="7"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
-        <v>1</v>
-      </c>
-      <c r="B108" s="2">
+      <c r="A108" s="3">
+        <v>1</v>
+      </c>
+      <c r="B108" s="3">
         <v>3262</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="3">
         <v>9214</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="3">
         <v>1459</v>
       </c>
-      <c r="E108" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1459-1</v>
-      </c>
-      <c r="F108" s="3" t="s">
+      <c r="E108" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F108" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G108" s="3"/>
+      <c r="G108" s="5"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
-        <v>1</v>
-      </c>
-      <c r="B109" s="2">
+      <c r="A109" s="4">
+        <v>1</v>
+      </c>
+      <c r="B109" s="4">
         <v>3263</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="4">
         <v>12283</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="4">
         <v>1460</v>
       </c>
-      <c r="E109" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1460-1</v>
-      </c>
-      <c r="F109" s="3" t="s">
+      <c r="E109" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F109" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G109" s="3"/>
+      <c r="G109" s="7"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
-        <v>1</v>
-      </c>
-      <c r="B110" s="2">
+      <c r="A110" s="3">
+        <v>1</v>
+      </c>
+      <c r="B110" s="3">
         <v>3264</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="3">
         <v>4522</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="3">
         <v>1461</v>
       </c>
-      <c r="E110" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1461-1</v>
-      </c>
-      <c r="F110" s="3" t="s">
+      <c r="E110" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F110" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G110" s="3"/>
+      <c r="G110" s="5"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
-        <v>1</v>
-      </c>
-      <c r="B111" s="2">
-        <v>3266</v>
-      </c>
-      <c r="C111" s="2">
+      <c r="A111" s="4">
+        <v>1</v>
+      </c>
+      <c r="B111" s="4">
+        <v>3265</v>
+      </c>
+      <c r="C111" s="4">
         <v>12292</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="4">
         <v>1462</v>
       </c>
-      <c r="E111" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1462-1</v>
-      </c>
-      <c r="F111" s="3" t="s">
+      <c r="E111" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F111" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G111" s="3"/>
+      <c r="G111" s="7"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
+      <c r="A112" s="3">
         <v>2</v>
       </c>
-      <c r="B112" s="2">
-        <v>3266</v>
-      </c>
-      <c r="C112" s="2">
+      <c r="B112" s="3">
+        <v>3265</v>
+      </c>
+      <c r="C112" s="3">
         <v>12291</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="3">
         <v>1462</v>
       </c>
-      <c r="E112" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1462-2</v>
-      </c>
-      <c r="F112" s="3" t="s">
+      <c r="E112" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F112" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="G112" s="3"/>
+      <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
-        <v>1</v>
-      </c>
-      <c r="B113" s="2">
+      <c r="A113" s="4">
+        <v>1</v>
+      </c>
+      <c r="B113" s="4">
         <v>3267</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="4">
         <v>31757</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="4">
         <v>1463</v>
       </c>
-      <c r="E113" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1463-1</v>
-      </c>
-      <c r="F113" s="3" t="s">
+      <c r="E113" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F113" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G113" s="3"/>
+      <c r="G113" s="7"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
+      <c r="A114" s="3">
         <v>2</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="3">
         <v>3267</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="3">
         <v>31758</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="3">
         <v>1463</v>
       </c>
-      <c r="E114" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1463-2</v>
-      </c>
-      <c r="F114" s="3" t="s">
+      <c r="E114" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F114" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="G114" s="3"/>
+      <c r="G114" s="5"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
+      <c r="A115" s="4">
         <v>3</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="4">
         <v>3267</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="4">
         <v>31759</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="4">
         <v>1463</v>
       </c>
-      <c r="E115" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1463-3</v>
-      </c>
-      <c r="F115" s="3" t="s">
+      <c r="E115" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F115" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G115" s="3"/>
+      <c r="G115" s="7"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
-        <v>1</v>
-      </c>
-      <c r="B116" s="2">
+      <c r="A116" s="3">
+        <v>1</v>
+      </c>
+      <c r="B116" s="3">
         <v>3269</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="3">
         <v>12293</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="3">
         <v>1465</v>
       </c>
-      <c r="E116" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1465-1</v>
-      </c>
-      <c r="F116" s="3" t="s">
+      <c r="E116" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F116" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="G116" s="3"/>
+      <c r="G116" s="5"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
-        <v>1</v>
-      </c>
-      <c r="B117" s="2">
+      <c r="A117" s="4">
+        <v>1</v>
+      </c>
+      <c r="B117" s="4">
         <v>3268</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="4">
         <v>9207</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="4">
         <v>1464</v>
       </c>
-      <c r="E117" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1464-1</v>
-      </c>
-      <c r="F117" s="3" t="s">
+      <c r="E117" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F117" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G117" s="3"/>
+      <c r="G117" s="7"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
-        <v>1</v>
-      </c>
-      <c r="B118" s="2">
+      <c r="A118" s="3">
+        <v>1</v>
+      </c>
+      <c r="B118" s="3">
         <v>3274</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="3">
         <v>12304</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="3">
         <v>1467</v>
       </c>
-      <c r="E118" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1467-1</v>
-      </c>
-      <c r="F118" s="3" t="s">
+      <c r="E118" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F118" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G118" s="3"/>
+      <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
+      <c r="A119" s="4">
         <v>2</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="4">
         <v>3274</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="4">
         <v>12305</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="4">
         <v>1467</v>
       </c>
-      <c r="E119" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1467-2</v>
-      </c>
-      <c r="F119" s="3" t="s">
+      <c r="E119" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F119" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G119" s="3"/>
+      <c r="G119" s="7"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
+      <c r="A120" s="3">
         <v>3</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="3">
         <v>3274</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="3">
         <v>12268</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="3">
         <v>1467</v>
       </c>
-      <c r="E120" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1467-3</v>
-      </c>
-      <c r="F120" s="3" t="s">
+      <c r="E120" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F120" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G120" s="3"/>
+      <c r="G120" s="5"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
-        <v>1</v>
-      </c>
-      <c r="B121" s="2">
-        <v>3279</v>
-      </c>
-      <c r="C121" s="2">
+      <c r="A121" s="4">
+        <v>1</v>
+      </c>
+      <c r="B121" s="4">
+        <v>3275</v>
+      </c>
+      <c r="C121" s="4">
         <v>2594</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="4">
         <v>1468</v>
       </c>
-      <c r="E121" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1468-1</v>
-      </c>
-      <c r="F121" s="3" t="s">
+      <c r="E121" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F121" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G121" s="3"/>
+      <c r="G121" s="7"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
+      <c r="A122" s="3">
         <v>2</v>
       </c>
-      <c r="B122" s="2">
-        <v>3279</v>
-      </c>
-      <c r="C122" s="2">
+      <c r="B122" s="3">
+        <v>3275</v>
+      </c>
+      <c r="C122" s="3">
         <v>2593</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="3">
         <v>1468</v>
       </c>
-      <c r="E122" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1468-2</v>
-      </c>
-      <c r="F122" s="3" t="s">
+      <c r="E122" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F122" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G122" s="3"/>
+      <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
+      <c r="A123" s="4">
         <v>3</v>
       </c>
-      <c r="B123" s="2">
-        <v>3279</v>
-      </c>
-      <c r="C123" s="2">
+      <c r="B123" s="4">
+        <v>3275</v>
+      </c>
+      <c r="C123" s="4">
         <v>2596</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="4">
         <v>1468</v>
       </c>
-      <c r="E123" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1468-3</v>
-      </c>
-      <c r="F123" s="3" t="s">
+      <c r="E123" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F123" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G123" s="3"/>
+      <c r="G123" s="7"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
+      <c r="A124" s="3">
         <v>4</v>
       </c>
-      <c r="B124" s="2">
-        <v>3279</v>
-      </c>
-      <c r="C124" s="2">
+      <c r="B124" s="3">
+        <v>3275</v>
+      </c>
+      <c r="C124" s="3">
         <v>2592</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="3">
         <v>1468</v>
       </c>
-      <c r="E124" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1468-4</v>
-      </c>
-      <c r="F124" s="3" t="s">
+      <c r="E124" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F124" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G124" s="3"/>
+      <c r="G124" s="5"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
+      <c r="A125" s="4">
         <v>5</v>
       </c>
-      <c r="B125" s="2">
-        <v>3279</v>
-      </c>
-      <c r="C125" s="2">
+      <c r="B125" s="4">
+        <v>3275</v>
+      </c>
+      <c r="C125" s="4">
         <v>2595</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="4">
         <v>1468</v>
       </c>
-      <c r="E125" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1468-5</v>
-      </c>
-      <c r="F125" s="3" t="s">
+      <c r="E125" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F125" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G125" s="3"/>
+      <c r="G125" s="7"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
-        <v>1</v>
-      </c>
-      <c r="B126" s="2">
-        <v>3282</v>
-      </c>
-      <c r="C126" s="2">
+      <c r="A126" s="3">
+        <v>1</v>
+      </c>
+      <c r="B126" s="3">
+        <v>3280</v>
+      </c>
+      <c r="C126" s="3">
         <v>31816</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="3">
         <v>1470</v>
       </c>
-      <c r="E126" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1470-1</v>
-      </c>
-      <c r="F126" s="3" t="s">
+      <c r="E126" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F126" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G126" s="3"/>
+      <c r="G126" s="5" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
+      <c r="A127" s="4">
         <v>2</v>
       </c>
-      <c r="B127" s="2">
-        <v>3282</v>
-      </c>
-      <c r="C127" s="2">
+      <c r="B127" s="4">
+        <v>3280</v>
+      </c>
+      <c r="C127" s="4">
         <v>31817</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="4">
         <v>1470</v>
       </c>
-      <c r="E127" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1470-2</v>
-      </c>
-      <c r="F127" s="3" t="s">
+      <c r="E127" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F127" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G127" s="3"/>
+      <c r="G127" s="7" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
+      <c r="A128" s="3">
         <v>3</v>
       </c>
-      <c r="B128" s="2">
-        <v>3282</v>
-      </c>
-      <c r="C128" s="2">
+      <c r="B128" s="3">
+        <v>3280</v>
+      </c>
+      <c r="C128" s="3">
         <v>31371</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="3">
         <v>1470</v>
       </c>
-      <c r="E128" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1470-3</v>
-      </c>
-      <c r="F128" s="3" t="s">
+      <c r="E128" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F128" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="G128" s="3"/>
+      <c r="G128" s="5" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
+      <c r="A129" s="4">
         <v>4</v>
       </c>
-      <c r="B129" s="2">
-        <v>3282</v>
-      </c>
-      <c r="C129" s="2">
+      <c r="B129" s="4">
+        <v>3280</v>
+      </c>
+      <c r="C129" s="4">
         <v>31372</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="4">
         <v>1470</v>
       </c>
-      <c r="E129" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1470-4</v>
-      </c>
-      <c r="F129" s="3" t="s">
+      <c r="E129" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F129" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G129" s="3"/>
+      <c r="G129" s="7" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
+      <c r="A130" s="3">
         <v>5</v>
       </c>
-      <c r="B130" s="2">
-        <v>3282</v>
-      </c>
-      <c r="C130" s="2">
+      <c r="B130" s="3">
+        <v>3280</v>
+      </c>
+      <c r="C130" s="3">
         <v>31373</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130" s="3">
         <v>1470</v>
       </c>
-      <c r="E130" s="2" t="str">
-        <f t="shared" ref="E130:E161" si="4">D130&amp;"-"&amp;A130</f>
-        <v>1470-5</v>
-      </c>
-      <c r="F130" s="3" t="s">
+      <c r="E130" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F130" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G130" s="3"/>
+      <c r="G130" s="5" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
+      <c r="A131" s="4">
         <v>6</v>
       </c>
-      <c r="B131" s="2">
-        <v>3282</v>
-      </c>
-      <c r="C131" s="2">
+      <c r="B131" s="4">
+        <v>3280</v>
+      </c>
+      <c r="C131" s="4">
         <v>31374</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="4">
         <v>1470</v>
       </c>
-      <c r="E131" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>1470-6</v>
-      </c>
-      <c r="F131" s="3" t="s">
+      <c r="E131" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F131" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G131" s="3"/>
+      <c r="G131" s="7" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
-        <v>1</v>
-      </c>
-      <c r="B132" s="2">
+      <c r="A132" s="3">
+        <v>1</v>
+      </c>
+      <c r="B132" s="3">
         <v>3286</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="3">
         <v>73877</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="3">
         <v>1473</v>
       </c>
-      <c r="E132" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>1473-1</v>
-      </c>
-      <c r="F132" s="3" t="s">
+      <c r="E132" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F132" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G132" s="3"/>
+      <c r="G132" s="5"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
-        <v>1</v>
-      </c>
-      <c r="B133" s="2">
+      <c r="A133" s="4">
+        <v>1</v>
+      </c>
+      <c r="B133" s="4">
         <v>3287</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="4">
         <v>4521</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="4">
         <v>1474</v>
       </c>
-      <c r="E133" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>1474-1</v>
-      </c>
-      <c r="F133" s="3" t="s">
+      <c r="E133" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F133" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G133" s="3"/>
+      <c r="G133" s="7"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
-        <v>1</v>
-      </c>
-      <c r="B134" s="2">
-        <v>3290</v>
-      </c>
-      <c r="C134" s="2">
+      <c r="A134" s="3">
+        <v>1</v>
+      </c>
+      <c r="B134" s="3">
+        <v>3288</v>
+      </c>
+      <c r="C134" s="3">
         <v>73855</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="3">
         <v>1475</v>
       </c>
-      <c r="E134" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>1475-1</v>
-      </c>
-      <c r="F134" s="3" t="s">
+      <c r="E134" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F134" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G134" s="3"/>
+      <c r="G134" s="5"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
+      <c r="A135" s="4">
         <v>2</v>
       </c>
-      <c r="B135" s="2">
-        <v>3290</v>
-      </c>
-      <c r="C135" s="2">
+      <c r="B135" s="4">
+        <v>3288</v>
+      </c>
+      <c r="C135" s="4">
         <v>73854</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="4">
         <v>1475</v>
       </c>
-      <c r="E135" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>1475-2</v>
-      </c>
-      <c r="F135" s="3" t="s">
+      <c r="E135" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F135" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G135" s="3"/>
+      <c r="G135" s="7"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
+      <c r="A136" s="3">
         <v>3</v>
       </c>
-      <c r="B136" s="2">
-        <v>3290</v>
-      </c>
-      <c r="C136" s="2">
+      <c r="B136" s="3">
+        <v>3288</v>
+      </c>
+      <c r="C136" s="3">
         <v>73853</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="3">
         <v>1475</v>
       </c>
-      <c r="E136" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>1475-3</v>
-      </c>
-      <c r="F136" s="3" t="s">
+      <c r="E136" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F136" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G136" s="3"/>
+      <c r="G136" s="5"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="4">
+        <v>1</v>
+      </c>
+      <c r="B137" s="4">
+        <v>3294</v>
+      </c>
+      <c r="C137" s="4">
+        <v>31803</v>
+      </c>
+      <c r="D137" s="4">
+        <v>1478</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G137" s="7"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="3">
+        <v>2</v>
+      </c>
+      <c r="B138" s="3">
+        <v>3294</v>
+      </c>
+      <c r="C138" s="3">
+        <v>31796</v>
+      </c>
+      <c r="D138" s="3">
+        <v>1478</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G138" s="5"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="4">
+        <v>3</v>
+      </c>
+      <c r="B139" s="4">
+        <v>3294</v>
+      </c>
+      <c r="C139" s="4">
+        <v>31797</v>
+      </c>
+      <c r="D139" s="4">
+        <v>1478</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G139" s="7"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="3">
+        <v>1</v>
+      </c>
+      <c r="B140" s="3">
+        <v>3295</v>
+      </c>
+      <c r="C140" s="3">
+        <v>31802</v>
+      </c>
+      <c r="D140" s="3">
+        <v>1479</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G140" s="5"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="4">
+        <v>2</v>
+      </c>
+      <c r="B141" s="4">
+        <v>3295</v>
+      </c>
+      <c r="C141" s="4">
+        <v>31772</v>
+      </c>
+      <c r="D141" s="4">
+        <v>1479</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G141" s="7"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="3">
+        <v>3</v>
+      </c>
+      <c r="B142" s="3">
+        <v>3295</v>
+      </c>
+      <c r="C142" s="3">
+        <v>31807</v>
+      </c>
+      <c r="D142" s="3">
+        <v>1479</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G142" s="5"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="4">
+        <v>4</v>
+      </c>
+      <c r="B143" s="4">
+        <v>3295</v>
+      </c>
+      <c r="C143" s="4">
+        <v>31809</v>
+      </c>
+      <c r="D143" s="4">
+        <v>1479</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G143" s="7"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
+        <v>1</v>
+      </c>
+      <c r="B144" s="3">
+        <v>3296</v>
+      </c>
+      <c r="C144" s="3">
+        <v>73885</v>
+      </c>
+      <c r="D144" s="3">
+        <v>1480</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G144" s="5"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="4">
+        <v>2</v>
+      </c>
+      <c r="B145" s="4">
+        <v>3296</v>
+      </c>
+      <c r="C145" s="4">
+        <v>73849</v>
+      </c>
+      <c r="D145" s="4">
+        <v>1480</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G145" s="7"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="3">
+        <v>1</v>
+      </c>
+      <c r="B146" s="3">
+        <v>3299</v>
+      </c>
+      <c r="C146" s="3">
+        <v>9</v>
+      </c>
+      <c r="D146" s="3">
+        <v>1482</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="G146" s="5"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="4">
+        <v>1</v>
+      </c>
+      <c r="B147" s="4">
+        <v>3298</v>
+      </c>
+      <c r="C147" s="4">
+        <v>73847</v>
+      </c>
+      <c r="D147" s="4">
+        <v>1481</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="G147" s="7"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="3">
+        <v>1</v>
+      </c>
+      <c r="B148" s="3">
+        <v>3315</v>
+      </c>
+      <c r="C148" s="3">
+        <v>4577</v>
+      </c>
+      <c r="D148" s="3">
+        <v>1483</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G148" s="5"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="4">
+        <v>1</v>
+      </c>
+      <c r="B149" s="4">
+        <v>3316</v>
+      </c>
+      <c r="C149" s="4">
+        <v>31812</v>
+      </c>
+      <c r="D149" s="4">
+        <v>1484</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G149" s="7"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
+        <v>2</v>
+      </c>
+      <c r="B150" s="3">
+        <v>3316</v>
+      </c>
+      <c r="C150" s="3">
+        <v>1263</v>
+      </c>
+      <c r="D150" s="3">
+        <v>1484</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="G150" s="5"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="4">
+        <v>3</v>
+      </c>
+      <c r="B151" s="4">
+        <v>3316</v>
+      </c>
+      <c r="C151" s="4">
+        <v>31813</v>
+      </c>
+      <c r="D151" s="4">
+        <v>1484</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G151" s="7"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
+        <v>4</v>
+      </c>
+      <c r="B152" s="3">
+        <v>3316</v>
+      </c>
+      <c r="C152" s="3">
+        <v>31811</v>
+      </c>
+      <c r="D152" s="3">
+        <v>1484</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G152" s="5"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="4">
+        <v>5</v>
+      </c>
+      <c r="B153" s="4">
+        <v>3316</v>
+      </c>
+      <c r="C153" s="4">
+        <v>31881</v>
+      </c>
+      <c r="D153" s="4">
+        <v>1484</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G153" s="7"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <v>1</v>
+      </c>
+      <c r="B154" s="3">
+        <v>3326</v>
+      </c>
+      <c r="C154" s="3">
+        <v>73880</v>
+      </c>
+      <c r="D154" s="3">
+        <v>1486</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G154" s="5"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="4">
+        <v>2</v>
+      </c>
+      <c r="B155" s="4">
+        <v>3326</v>
+      </c>
+      <c r="C155" s="4">
+        <v>73881</v>
+      </c>
+      <c r="D155" s="4">
+        <v>1486</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G155" s="7"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="3">
+        <v>1</v>
+      </c>
+      <c r="B156" s="3">
+        <v>3321</v>
+      </c>
+      <c r="C156" s="3">
+        <v>31900</v>
+      </c>
+      <c r="D156" s="3">
+        <v>1485</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="G156" s="5"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="4">
+        <v>2</v>
+      </c>
+      <c r="B157" s="4">
+        <v>3321</v>
+      </c>
+      <c r="C157" s="4">
+        <v>31810</v>
+      </c>
+      <c r="D157" s="4">
+        <v>1485</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G157" s="7"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
+        <v>3</v>
+      </c>
+      <c r="B158" s="3">
+        <v>3321</v>
+      </c>
+      <c r="C158" s="3">
+        <v>31901</v>
+      </c>
+      <c r="D158" s="3">
+        <v>1485</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="G158" s="5"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="4">
+        <v>4</v>
+      </c>
+      <c r="B159" s="4">
+        <v>3321</v>
+      </c>
+      <c r="C159" s="4">
+        <v>31891</v>
+      </c>
+      <c r="D159" s="4">
+        <v>1485</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G159" s="7"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="3">
+        <v>5</v>
+      </c>
+      <c r="B160" s="3">
+        <v>3321</v>
+      </c>
+      <c r="C160" s="3">
+        <v>31902</v>
+      </c>
+      <c r="D160" s="3">
+        <v>1485</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="G160" s="5"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="4">
+        <v>6</v>
+      </c>
+      <c r="B161" s="4">
+        <v>3321</v>
+      </c>
+      <c r="C161" s="4">
+        <v>31903</v>
+      </c>
+      <c r="D161" s="4">
+        <v>1485</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G161" s="7"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
+        <v>7</v>
+      </c>
+      <c r="B162" s="3">
+        <v>3321</v>
+      </c>
+      <c r="C162" s="3">
+        <v>31893</v>
+      </c>
+      <c r="D162" s="3">
+        <v>1485</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G162" s="5"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="4">
+        <v>8</v>
+      </c>
+      <c r="B163" s="4">
+        <v>3321</v>
+      </c>
+      <c r="C163" s="4">
+        <v>31887</v>
+      </c>
+      <c r="D163" s="4">
+        <v>1485</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G163" s="7"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="3">
+        <v>9</v>
+      </c>
+      <c r="B164" s="3">
+        <v>3321</v>
+      </c>
+      <c r="C164" s="3">
+        <v>31897</v>
+      </c>
+      <c r="D164" s="3">
+        <v>1485</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G164" s="5"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="4">
+        <v>10</v>
+      </c>
+      <c r="B165" s="4">
+        <v>3321</v>
+      </c>
+      <c r="C165" s="4">
+        <v>31898</v>
+      </c>
+      <c r="D165" s="4">
+        <v>1485</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G165" s="7"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" s="3">
+        <v>11</v>
+      </c>
+      <c r="B166" s="3">
+        <v>3321</v>
+      </c>
+      <c r="C166" s="3">
+        <v>31899</v>
+      </c>
+      <c r="D166" s="3">
+        <v>1485</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G166" s="5"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="4">
+        <v>1</v>
+      </c>
+      <c r="B167" s="4">
+        <v>3328</v>
+      </c>
+      <c r="C167" s="4">
+        <v>73863</v>
+      </c>
+      <c r="D167" s="4">
+        <v>1487</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="3">
+        <v>2</v>
+      </c>
+      <c r="B168" s="3">
+        <v>3328</v>
+      </c>
+      <c r="C168" s="3">
+        <v>73861</v>
+      </c>
+      <c r="D168" s="3">
+        <v>1487</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="4">
+        <v>3</v>
+      </c>
+      <c r="B169" s="4">
+        <v>3328</v>
+      </c>
+      <c r="C169" s="4">
+        <v>73862</v>
+      </c>
+      <c r="D169" s="4">
+        <v>1487</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" s="3">
+        <v>1</v>
+      </c>
+      <c r="B170" s="3">
+        <v>3331</v>
+      </c>
+      <c r="C170" s="3">
+        <v>11937</v>
+      </c>
+      <c r="D170" s="3">
+        <v>1488</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="4">
+        <v>2</v>
+      </c>
+      <c r="B171" s="4">
+        <v>3331</v>
+      </c>
+      <c r="C171" s="4">
+        <v>11939</v>
+      </c>
+      <c r="D171" s="4">
+        <v>1488</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G171" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
+        <v>3</v>
+      </c>
+      <c r="B172" s="3">
+        <v>3331</v>
+      </c>
+      <c r="C172" s="3">
+        <v>31922</v>
+      </c>
+      <c r="D172" s="3">
+        <v>1488</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="G172" s="5"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" s="4">
+        <v>4</v>
+      </c>
+      <c r="B173" s="4">
+        <v>3331</v>
+      </c>
+      <c r="C173" s="4">
+        <v>31923</v>
+      </c>
+      <c r="D173" s="4">
+        <v>1488</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G173" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" location="/track/pMyTQDrCWcJiM4uEMqBV2s+0TlZvDA0M" xr:uid="{A4DE2DAE-8B98-4007-9377-DDF71034737C}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{8B02F0A3-1E2B-477E-9330-6C1083F1389A}"/>
+    <hyperlink ref="F2" r:id="rId1" location="/track/pMyTQDrCWcJiM4uEMqBV2s+0TlZvDA0M" display="https://tracking.comprovei.com/ - /track/pMyTQDrCWcJiM4uEMqBV2s+0TlZvDA0M" xr:uid="{70B86A2E-42B2-4198-934B-A951E0189437}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{87DC8293-3BD9-46A5-807A-8A0080D466B3}"/>
+    <hyperlink ref="F147" r:id="rId3" location="/track/pMyTQDrCWcJiM4uEMqBVNFwfqbCo3YzL" xr:uid="{40CF6A7A-32B0-4915-A48B-76BC2E9EB3FD}"/>
+    <hyperlink ref="F163" r:id="rId4" location="/track/pMyTQDrCWcJiM4uEMqBVe0ga2iTdpuCg" xr:uid="{25BD6B85-8F28-4A16-BAA5-748AEABB91E9}"/>
+    <hyperlink ref="F118" r:id="rId5" location="/track/pMyTQDrCWcJiM4uEMqBVQTeOkS1J2IE7" xr:uid="{1ABB3412-1124-49BD-B145-C568870D0050}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>